--- a/DeepLearningPolycubing/Results/Book1.xlsx
+++ b/DeepLearningPolycubing/Results/Book1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcleres/DeepShape/DeepLearningPolycubing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C490884D-CAFC-DB4D-8CFF-C47E37D48F54}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E6D8D2-E333-D542-B2EF-5677633098CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="17060" xr2:uid="{EBA3C40F-43B5-8A44-86E5-05149CB0A759}"/>
   </bookViews>
   <sheets>
     <sheet name="Leaky Relu" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Validation</t>
   </si>
@@ -62,12 +63,15 @@
   <si>
     <t>Sofmax</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,13 +87,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,12 +126,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,12 +203,2585 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sigmoid - Light</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Model - Trainning vs. Validation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0555555555555555E-2"/>
+          <c:y val="0.30644268774703559"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.4911783013289347"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adamax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SGD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Leaky Relu'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>97.682900000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.036095000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.11609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.199100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E03-F745-97AB-5297D2638DDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adamax</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SGD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Leaky Relu'!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>99.976200000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.994575999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.714489999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.845579999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E03-F745-97AB-5297D2638DDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="949595407"/>
+        <c:axId val="949629855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="949595407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Optimizer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949629855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="949629855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="949595407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sigmoid - Light</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0555555555555555E-2"/>
+          <c:y val="0.25245370370370368"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.52438939924176142"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$B$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Validation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Leaky Relu'!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>97.682900000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.976200000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8129-AD48-9C2E-4B4ADAEFCFAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adamax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$B$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Validation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Leaky Relu'!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>98.036095000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.994575999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8129-AD48-9C2E-4B4ADAEFCFAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$B$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Validation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Leaky Relu'!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>97.11609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.714489999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8129-AD48-9C2E-4B4ADAEFCFAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Leaky Relu'!$B$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Validation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Leaky Relu'!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>97.199100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.845579999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8129-AD48-9C2E-4B4ADAEFCFAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="949595407"/>
+        <c:axId val="949629855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="949595407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Optimizer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949629855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="949629855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="949595407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D0DAC07-FAA5-C546-9A54-4AB0A0F12459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE60F3A6-4A12-8D4C-AA6B-5B4F5E9A93CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{239746C8-0BDB-D347-8777-0C3E390B2B7D}" name="Table1" displayName="Table1" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{59E7F4B4-BFBE-B34D-A7C1-2D1DEB3381A3}" name="Column1" headerRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{59E7F4B4-BFBE-B34D-A7C1-2D1DEB3381A3}" name="Column1" headerRowDxfId="14"/>
     <tableColumn id="2" xr3:uid="{D8223E95-7B4E-864C-94D2-C9A74512F303}" name="Column2" headerRowDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{EF66F855-7D7A-6143-BD3B-5E295CA97A6D}" name="Column3" headerRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{EF66F855-7D7A-6143-BD3B-5E295CA97A6D}" name="Column3" headerRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -517,15 +3117,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66D896D-095A-5F4A-8DE9-2EA97D36B8E7}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -533,7 +3133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -543,7 +3143,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -562,48 +3162,116 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="3">
+        <v>97.682900000000004</v>
+      </c>
+      <c r="C4">
+        <v>99.976200000000006</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F4" s="3">
+        <v>97.396450000000002</v>
+      </c>
+      <c r="G4">
+        <v>99.982429999999994</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="6">
+        <v>98.036095000000003</v>
+      </c>
+      <c r="C5" s="7">
+        <v>99.994575999999995</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F5" s="3">
+        <v>96.92098</v>
+      </c>
+      <c r="G5">
+        <v>99.984534999999994</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>97.11609</v>
+      </c>
+      <c r="C6">
+        <v>99.714489999999998</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>97.309364000000002</v>
+      </c>
+      <c r="G6">
+        <v>99.862129999999993</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B7" s="3">
+        <v>97.199100000000001</v>
+      </c>
+      <c r="C7">
+        <v>99.845579999999998</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F7" s="3">
+        <v>97.240600000000001</v>
+      </c>
+      <c r="G7">
+        <v>99.899289999999993</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -612,8 +3280,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="1"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -632,47 +3302,109 @@
       <c r="G12" t="s">
         <v>1</v>
       </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B14" s="3">
+        <v>97.450159999999997</v>
+      </c>
+      <c r="C14">
+        <v>99.993160000000003</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F14" s="3">
+        <v>97.153930000000003</v>
+      </c>
+      <c r="G14">
+        <v>99.996269999999996</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>97.124840000000006</v>
+      </c>
+      <c r="C15">
+        <v>99.989279999999994</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3">
+        <v>97.791340000000005</v>
+      </c>
+      <c r="G15">
+        <v>99.984939999999995</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="B16" s="3">
+        <v>97.600300000000004</v>
+      </c>
+      <c r="C16">
+        <v>99.55274</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F16" s="3">
+        <v>97.956140000000005</v>
+      </c>
+      <c r="G16">
+        <v>99.984534999999994</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="17" spans="11:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="K17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>